--- a/data/Character.xlsx
+++ b/data/Character.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\GenshinSim\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B6BAF6-C52B-4A51-B50A-ECFD62FD2F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBE72C2-FD3A-433E-90C5-326A888170A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,19 +144,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一段伤害;{1},
-二段伤害;{2},
-三段伤害;{3}+{3},
-四段伤害;{4},
-五段伤害;{5}+{5},
-重击循环伤害;{6},
-重击终结伤害;{7},
-下坠期间伤害;{8},
-低空/高空坠地冲击伤害;{9}/{10}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Texts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一段伤害;{0},
+二段伤害;{1},
+三段伤害;{2}+{2},
+四段伤害;{3},
+五段伤害;{4}+{4},
+重击循环伤害;{5},
+重击终结伤害;{6},
+下坠期间伤害;{7},
+低空/高空坠地冲击伤害;{8}/{9}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -211,11 +211,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -546,7 +546,7 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -587,7 +587,7 @@
         <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="128.25" x14ac:dyDescent="0.2">
@@ -600,11 +600,11 @@
       <c r="D3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>31</v>
+      <c r="F3" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -785,7 +785,7 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -869,13 +869,13 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="3">
@@ -925,9 +925,9 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="3">
         <v>0.9355</v>
       </c>
@@ -975,9 +975,9 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="3">
         <v>0.56799999999999995</v>
       </c>
@@ -1025,9 +1025,9 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="3">
         <v>1.1264000000000001</v>
       </c>
@@ -1075,9 +1075,9 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="3">
         <v>0.71830000000000005</v>
       </c>
@@ -1125,9 +1125,9 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="3">
         <v>0.68799999999999994</v>
       </c>
@@ -1175,9 +1175,9 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="3">
         <v>1.244</v>
       </c>
@@ -1225,9 +1225,9 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="3">
         <v>0.74590000000000001</v>
       </c>
@@ -1275,9 +1275,9 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="3">
         <v>1.4914000000000001</v>
       </c>
@@ -1325,9 +1325,9 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="3">
         <v>1.8629</v>
       </c>

--- a/data/Character.xlsx
+++ b/data/Character.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\GenshinSim\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBE72C2-FD3A-433E-90C5-326A888170A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C8C27F-6EBF-434F-8886-1921F4FA1C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,17 +17,26 @@
     <sheet name="CharacterTalentDataTable" sheetId="3" r:id="rId2"/>
     <sheet name="CharacterTalentEffectDataTable" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>### TABLE_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,32 +140,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>普通攻击·西风剑术·宗室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通攻击
-进行至多五段的连续挥砍。
-重击
-持续消耗体力，快速进行连续的斩击。
-重击结束时，会进行一次格外有力的挥砍。
-下落攻击从空中下坠冲击地面，攻击下落路径上的敌人，并在落地时造成范围伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Texts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一段伤害;{0},
-二段伤害;{1},
-三段伤害;{2}+{2},
-四段伤害;{3},
-五段伤害;{4}+{4},
-重击循环伤害;{5},
-重击终结伤害;{6},
-下坠期间伤害;{7},
-低空/高空坠地冲击伤害;{8}/{9}</t>
+    <t>EffectTexts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill.Common.SkillDamage1;{0},
+Skill.Common.SkillDamage2;{1},
+Skill.Common.SkillDamage3;{2}+{2},
+Skill.Common.SkillDamage4;{3},
+Skill.Common.SkillDamage5;{4}+{4},
+Skill.Common.ChargedAttackLoopDamage;{5},
+Skill.Common.ChargedAttackFinalDamage;{6},
+Skill.Common.PlungeDamage;{7},
+Skill.Common.LowHighPlungeDamage;{8}/{9}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,7 +496,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -546,7 +542,7 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -555,8 +551,8 @@
     <col min="2" max="2" width="14.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="28.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="67.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="80.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="72.375" style="2" customWidth="1"/>
     <col min="7" max="10" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="19" width="9.125" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
@@ -587,7 +583,7 @@
         <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="128.25" x14ac:dyDescent="0.2">
@@ -597,14 +593,16 @@
       <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="1" t="str">
+        <f>_xlfn.CONCAT($B3,".",$C3,".",D$2)</f>
+        <v>Eula.Attack.Name</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f>_xlfn.CONCAT($B3,".",$C3,".",E$2)</f>
+        <v>Eula.Attack.Description</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -785,7 +783,7 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/data/Character.xlsx
+++ b/data/Character.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\GenshinSim\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C8C27F-6EBF-434F-8886-1921F4FA1C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE321F4-208F-4C33-934B-403FADD9B766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,15 +144,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Skill.Common.SkillDamage1;{0},
-Skill.Common.SkillDamage2;{1},
-Skill.Common.SkillDamage3;{2}+{2},
-Skill.Common.SkillDamage4;{3},
-Skill.Common.SkillDamage5;{4}+{4},
-Skill.Common.ChargedAttackLoopDamage;{5},
-Skill.Common.ChargedAttackFinalDamage;{6},
-Skill.Common.PlungeDamage;{7},
-Skill.Common.LowHighPlungeDamage;{8}/{9}</t>
+    <t>Skill.Common.SkillDamage1;[0],
+Skill.Common.SkillDamage2;[1],
+Skill.Common.SkillDamage3;[2] + [2],
+Skill.Common.SkillDamage4;[3],
+Skill.Common.SkillDamage5;[4] + [4],
+Skill.Common.ChargedAttackLoopDamage;[5],
+Skill.Common.ChargedAttackFinalDamage;[6],
+Skill.Common.PlungeDamage;[7],
+Skill.Common.LowHighPlungeDamage;[8] / [9]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -539,10 +539,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDDD4EC-85D3-45C6-9CB3-503EC884EA9C}">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -553,12 +553,10 @@
     <col min="4" max="4" width="28.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="80.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="72.375" style="2" customWidth="1"/>
-    <col min="7" max="10" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="19" width="9.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,7 +564,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -586,7 +584,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -604,172 +602,6 @@
       <c r="F3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -783,7 +615,7 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/data/Character.xlsx
+++ b/data/Character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\GenshinSim\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE321F4-208F-4C33-934B-403FADD9B766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1A20B4-7FCC-4432-B03D-D37267B4DAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterDataTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>### TABLE_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,52 +68,6 @@
   <si>
     <t>EffectDefinition</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level2</t>
-  </si>
-  <si>
-    <t>Level3</t>
-  </si>
-  <si>
-    <t>Level4</t>
-  </si>
-  <si>
-    <t>Level5</t>
-  </si>
-  <si>
-    <t>Level6</t>
-  </si>
-  <si>
-    <t>Level7</t>
-  </si>
-  <si>
-    <t>Level8</t>
-  </si>
-  <si>
-    <t>Level9</t>
-  </si>
-  <si>
-    <t>Level10</t>
-  </si>
-  <si>
-    <t>Level11</t>
-  </si>
-  <si>
-    <t>Level12</t>
-  </si>
-  <si>
-    <t>Level13</t>
-  </si>
-  <si>
-    <t>Level14</t>
-  </si>
-  <si>
-    <t>Level15</t>
   </si>
   <si>
     <t>Attack</t>
@@ -153,6 +107,10 @@
 Skill.Common.ChargedAttackFinalDamage;[6],
 Skill.Common.PlungeDamage;[7],
 Skill.Common.LowHighPlungeDamage;[8] / [9]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectStatistics</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -196,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -212,6 +170,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,7 +502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDDD4EC-85D3-45C6-9CB3-503EC884EA9C}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -561,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -572,16 +533,16 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
@@ -589,7 +550,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="str">
         <f>_xlfn.CONCAT($B3,".",$C3,".",D$2)</f>
@@ -600,7 +561,7 @@
         <v>Eula.Attack.Description</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -614,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E844BF-D3AD-483C-80B5-ACD149B4E88E}">
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -636,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -647,66 +608,38 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E3" s="3">
         <v>0.89729999999999999</v>
@@ -1205,10 +1138,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C3:C12"/>
     <mergeCell ref="B3:B12"/>
     <mergeCell ref="D3:D12"/>
+    <mergeCell ref="E2:S2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Character.xlsx
+++ b/data/Character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\GenshinSim\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1A20B4-7FCC-4432-B03D-D37267B4DAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09D4EAD-DD4A-4DD8-840A-A2FA2DD89AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterDataTable" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>### TABLE_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ArtifactSetDataTable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -111,6 +107,38 @@
   </si>
   <si>
     <t>EffectStatistics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterDataTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DisplayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eula.Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeaponType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassiveTalentEffects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cryo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Claymore</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -154,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -172,6 +200,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -454,44 +488,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="135" customWidth="1"/>
+    <col min="2" max="2" width="20" style="1" customWidth="1"/>
+    <col min="3" max="5" width="16.5" style="1" customWidth="1"/>
+    <col min="6" max="7" width="57.75" style="1" customWidth="1"/>
+    <col min="8" max="13" width="57.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>5</v>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="F2:G2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -503,7 +570,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -522,35 +589,35 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="str">
         <f>_xlfn.CONCAT($B3,".",$C3,".",D$2)</f>
@@ -561,7 +628,7 @@
         <v>Eula.Attack.Description</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -575,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E844BF-D3AD-483C-80B5-ACD149B4E88E}">
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -597,24 +664,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -633,13 +700,13 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="E3" s="3">
         <v>0.89729999999999999</v>

--- a/data/Character.xlsx
+++ b/data/Character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\GenshinSim\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09D4EAD-DD4A-4DD8-840A-A2FA2DD89AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C632174-A49C-4395-86AC-307E75E2E928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterDataTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
   <si>
     <t>### TABLE_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Damage;SkillModifier;{STANDARD_NONCRITICAL_VALUE_ATTACK}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CharacterTalentEffectDataTable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,18 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Skill.Common.SkillDamage1;[0],
-Skill.Common.SkillDamage2;[1],
-Skill.Common.SkillDamage3;[2] + [2],
-Skill.Common.SkillDamage4;[3],
-Skill.Common.SkillDamage5;[4] + [4],
-Skill.Common.ChargedAttackLoopDamage;[5],
-Skill.Common.ChargedAttackFinalDamage;[6],
-Skill.Common.PlungeDamage;[7],
-Skill.Common.LowHighPlungeDamage;[8] / [9]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EffectStatistics</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,6 +123,135 @@
   </si>
   <si>
     <t>Claymore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill.SkillDamage1;[0],
+Skill.SkillDamage2;[1],
+Skill.SkillDamage3;[2] + [2],
+Skill.SkillDamage4;[3],
+Skill.SkillDamage5;[4] + [4],
+Skill.ChargedAttackLoopDamage;[5],
+Skill.ChargedAttackFinalDamage;[6],
+Skill.PlungeDamage;[7],
+Skill.LowHighPlungeDamage;[8] / [9]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementalSkill</t>
+  </si>
+  <si>
+    <t>ElementalBurst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill.PressDamage;[0],
+Skill.HoldDamage;[1],
+Eula.ElementalSkill.IcewhirlBrandDamage;[2],
+Skill.DefenseBoost;[3] {Skill.PerStack},
+Skill.CryoResistanceShred;[4],
+Skill.PhysicalResistanceShred;[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>###</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LV1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LV2</t>
+  </si>
+  <si>
+    <t>LV3</t>
+  </si>
+  <si>
+    <t>LV4</t>
+  </si>
+  <si>
+    <t>LV5</t>
+  </si>
+  <si>
+    <t>LV6</t>
+  </si>
+  <si>
+    <t>LV7</t>
+  </si>
+  <si>
+    <t>LV8</t>
+  </si>
+  <si>
+    <t>LV9</t>
+  </si>
+  <si>
+    <t>LV10</t>
+  </si>
+  <si>
+    <t>LV11</t>
+  </si>
+  <si>
+    <t>LV12</t>
+  </si>
+  <si>
+    <t>LV13</t>
+  </si>
+  <si>
+    <t>LV14</t>
+  </si>
+  <si>
+    <t>LV15</t>
+  </si>
+  <si>
+    <t>ElementalSkill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StatisticChange;CryoResistance;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StatisticChange;PhysicalResistance;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StatisticChange;Defense_Percentage;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill.SkillDamage;[0],
+Eula.ElementalBurst.LightfallSwordBaseDamage;[1],
+Eula.ElementalBurst.DamagePerStack;[2],
+Eula.ElementalBurst.MaxNumStacks;[3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StatisticChange;MaxNumStacks;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage;SkillModifier;{StandardNoncriticalDamage_NormalAttack_Physcial}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage;SkillModifier;{StandardNoncriticalDamage_ChargedAttack_Physcial}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage;SkillModifier;{StandardNoncriticalDamage_PlungeAttack_Physcial}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage;SkillModifier;{StandardNoncriticalDamage_ElementalBurst_Physcial}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage;SkillModifier;{StandardNoncriticalDamage_ElementalBurst_Cryo}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage;SkillModifier;{StandardNoncriticalDamage_ElementalSkill_Cryo}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -182,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -191,22 +304,31 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -490,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -508,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -519,39 +641,39 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="7" t="s">
+      <c r="G2" s="9"/>
+      <c r="H2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -567,10 +689,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDDD4EC-85D3-45C6-9CB3-503EC884EA9C}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -578,8 +700,8 @@
     <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="80.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.75" style="2" customWidth="1"/>
     <col min="6" max="6" width="72.375" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
@@ -589,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -600,16 +722,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
@@ -627,8 +749,46 @@
         <f>_xlfn.CONCAT($B3,".",$C3,".",E$2)</f>
         <v>Eula.Attack.Description</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>14</v>
+      <c r="F3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f t="shared" ref="D4:E5" si="0">_xlfn.CONCAT($B4,".",$C4,".",D$2)</f>
+        <v>Eula.ElementalSkill.Name</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Eula.ElementalSkill.Description</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Eula.ElementalBurst.Name</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Eula.ElementalBurst.Description</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -640,576 +800,869 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E844BF-D3AD-483C-80B5-ACD149B4E88E}">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="56.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="19" width="9.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="15.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="76.625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="19" width="9.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="D2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.89729999999999999</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.97040000000000004</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1.0434000000000001</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1.1476999999999999</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1.2208000000000001</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1.3043</v>
+      </c>
+      <c r="K4" s="7">
+        <v>1.419</v>
+      </c>
+      <c r="L4" s="7">
+        <v>1.5338000000000001</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1.6486000000000001</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1.7738</v>
+      </c>
+      <c r="O4" s="7">
+        <v>1.9172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="7">
+        <v>0.9355</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1.0117</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1.0878000000000001</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1.1966000000000001</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1.2726999999999999</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1.3597999999999999</v>
+      </c>
+      <c r="K5" s="7">
+        <v>1.4794</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1.5991</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1.7186999999999999</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1.8492999999999999</v>
+      </c>
+      <c r="O5" s="7">
+        <v>1.9987999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="7">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.61419999999999997</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.66049999999999998</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.66049999999999998</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.77270000000000005</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.8256</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0.8982</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0.97089999999999999</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1.0435000000000001</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1.1228</v>
+      </c>
+      <c r="O6" s="7">
+        <v>1.2136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="7">
+        <v>1.1264000000000001</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1.2181</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1.3098000000000001</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1.3098000000000001</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1.5325</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1.6373</v>
+      </c>
+      <c r="K7" s="7">
+        <v>1.7813000000000001</v>
+      </c>
+      <c r="L7" s="7">
+        <v>1.9254</v>
+      </c>
+      <c r="M7" s="7">
+        <v>2.0695000000000001</v>
+      </c>
+      <c r="N7" s="7">
+        <v>2.2267000000000001</v>
+      </c>
+      <c r="O7" s="7">
+        <v>2.4068000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="7">
+        <v>0.71830000000000005</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.77680000000000005</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.83530000000000004</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.83530000000000004</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.97729999999999995</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1.0441</v>
+      </c>
+      <c r="K8" s="7">
+        <v>1.1359999999999999</v>
+      </c>
+      <c r="L8" s="7">
+        <v>1.2279</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1.3197000000000001</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1.42</v>
+      </c>
+      <c r="O8" s="7">
+        <v>1.5347999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="J9" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.89729999999999999</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.97040000000000004</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1.0434000000000001</v>
-      </c>
-      <c r="H3" s="3">
-        <v>1.1476999999999999</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1.2208000000000001</v>
-      </c>
-      <c r="J3" s="3">
-        <v>1.3043</v>
-      </c>
-      <c r="K3" s="3">
-        <v>1.419</v>
-      </c>
-      <c r="L3" s="3">
-        <v>1.5338000000000001</v>
-      </c>
-      <c r="M3" s="3">
-        <v>1.6486000000000001</v>
-      </c>
-      <c r="N3" s="3">
-        <v>1.7738</v>
-      </c>
-      <c r="O3" s="3">
-        <v>1.9172</v>
-      </c>
-      <c r="P3" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>0</v>
-      </c>
-      <c r="R3" s="3">
-        <v>0</v>
-      </c>
-      <c r="S3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="3">
-        <v>0.9355</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1.0117</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1.0878000000000001</v>
-      </c>
-      <c r="H4" s="3">
-        <v>1.1966000000000001</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1.2726999999999999</v>
-      </c>
-      <c r="J4" s="3">
-        <v>1.3597999999999999</v>
-      </c>
-      <c r="K4" s="3">
-        <v>1.4794</v>
-      </c>
-      <c r="L4" s="3">
-        <v>1.5991</v>
-      </c>
-      <c r="M4" s="3">
-        <v>1.7186999999999999</v>
-      </c>
-      <c r="N4" s="3">
-        <v>1.8492999999999999</v>
-      </c>
-      <c r="O4" s="3">
-        <v>1.9987999999999999</v>
-      </c>
-      <c r="P4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>0</v>
-      </c>
-      <c r="R4" s="3">
-        <v>0</v>
-      </c>
-      <c r="S4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="3">
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.61419999999999997</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.66049999999999998</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0.66049999999999998</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0.77270000000000005</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0.8256</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0.8982</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0.97089999999999999</v>
-      </c>
-      <c r="M5" s="3">
-        <v>1.0435000000000001</v>
-      </c>
-      <c r="N5" s="3">
-        <v>1.1228</v>
-      </c>
-      <c r="O5" s="3">
-        <v>1.2136</v>
-      </c>
-      <c r="P5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>0</v>
-      </c>
-      <c r="R5" s="3">
-        <v>0</v>
-      </c>
-      <c r="S5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="3">
-        <v>1.1264000000000001</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1.2181</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1.3098000000000001</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1.3098000000000001</v>
-      </c>
-      <c r="I6" s="3">
-        <v>1.5325</v>
-      </c>
-      <c r="J6" s="3">
-        <v>1.6373</v>
-      </c>
-      <c r="K6" s="3">
-        <v>1.7813000000000001</v>
-      </c>
-      <c r="L6" s="3">
-        <v>1.9254</v>
-      </c>
-      <c r="M6" s="3">
-        <v>2.0695000000000001</v>
-      </c>
-      <c r="N6" s="3">
-        <v>2.2267000000000001</v>
-      </c>
-      <c r="O6" s="3">
-        <v>2.4068000000000001</v>
-      </c>
-      <c r="P6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>0</v>
-      </c>
-      <c r="R6" s="3">
-        <v>0</v>
-      </c>
-      <c r="S6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="3">
-        <v>0.71830000000000005</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.77680000000000005</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0.83530000000000004</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0.83530000000000004</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0.97729999999999995</v>
-      </c>
-      <c r="J7" s="3">
-        <v>1.0441</v>
-      </c>
-      <c r="K7" s="3">
-        <v>1.1359999999999999</v>
-      </c>
-      <c r="L7" s="3">
-        <v>1.2279</v>
-      </c>
-      <c r="M7" s="3">
-        <v>1.3197000000000001</v>
-      </c>
-      <c r="N7" s="3">
-        <v>1.42</v>
-      </c>
-      <c r="O7" s="3">
-        <v>1.5347999999999999</v>
-      </c>
-      <c r="P7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>0</v>
-      </c>
-      <c r="R7" s="3">
-        <v>0</v>
-      </c>
-      <c r="S7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="3">
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0.74399999999999999</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="K9" s="7">
         <v>1.0880000000000001</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L9" s="7">
         <v>1.1759999999999999</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M9" s="7">
         <v>1.264</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N9" s="7">
         <v>1.36</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O9" s="7">
         <v>1.47</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="3">
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="7">
         <v>1.244</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F10" s="7">
         <v>1.3452</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G10" s="7">
         <v>1.4464999999999999</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H10" s="7">
         <v>1.4464999999999999</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I10" s="7">
         <v>1.6923999999999999</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J10" s="7">
         <v>1.8081</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K10" s="7">
         <v>1.9672000000000001</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L10" s="7">
         <v>2.1263999999999998</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M10" s="7">
         <v>2.2854999999999999</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N10" s="7">
         <v>2.4590999999999998</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O10" s="7">
         <v>2.6579000000000002</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="3">
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="7">
         <v>0.74590000000000001</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F11" s="7">
         <v>0.80659999999999998</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G11" s="7">
         <v>0.86729999999999996</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H11" s="7">
         <v>0.86729999999999996</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I11" s="7">
         <v>1.0146999999999999</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J11" s="7">
         <v>1.0841000000000001</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K11" s="7">
         <v>1.1795</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L11" s="7">
         <v>1.2748999999999999</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M11" s="7">
         <v>1.3703000000000001</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N11" s="7">
         <v>1.4743999999999999</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O11" s="7">
         <v>1.5936999999999999</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="3">
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="7">
         <v>1.4914000000000001</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F12" s="7">
         <v>1.6128</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G12" s="7">
         <v>1.7342</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H12" s="7">
         <v>1.7342</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I12" s="7">
         <v>2.0291000000000001</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J12" s="7">
         <v>2.1678000000000002</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K12" s="7">
         <v>2.3586</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L12" s="7">
         <v>2.5493000000000001</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M12" s="7">
         <v>2.7401</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N12" s="7">
         <v>2.9481999999999999</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O12" s="7">
         <v>3.1867000000000001</v>
       </c>
-      <c r="P11" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>0</v>
-      </c>
-      <c r="R11" s="3">
-        <v>0</v>
-      </c>
-      <c r="S11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="3">
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="7">
         <v>1.8629</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F13" s="7">
         <v>2.0145</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G13" s="7">
         <v>2.1661999999999999</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H13" s="7">
         <v>2.1661999999999999</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I13" s="7">
         <v>2.3828</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J13" s="7">
         <v>2.7077</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K13" s="7">
         <v>2.9460000000000002</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L13" s="7">
         <v>3.1842000000000001</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M13" s="7">
         <v>3.4224999999999999</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N13" s="7">
         <v>3.6825000000000001</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O13" s="7">
         <v>3.9803000000000002</v>
       </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
-      <c r="S12" s="3">
-        <v>0</v>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1.464</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1.5738000000000001</v>
+      </c>
+      <c r="G14" s="7">
+        <v>168.36</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1.83</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1.9398</v>
+      </c>
+      <c r="J14" s="7">
+        <v>2.0495999999999999</v>
+      </c>
+      <c r="K14" s="7">
+        <v>2.1960000000000002</v>
+      </c>
+      <c r="L14" s="7">
+        <v>2.3424</v>
+      </c>
+      <c r="M14" s="7">
+        <v>2.4887999999999999</v>
+      </c>
+      <c r="N14" s="7">
+        <v>2.6352000000000002</v>
+      </c>
+      <c r="O14" s="7">
+        <v>2.7816000000000001</v>
+      </c>
+      <c r="P14" s="7">
+        <v>2.9279999999999999</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>3.1110000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="7">
+        <v>2.456</v>
+      </c>
+      <c r="F15" s="7">
+        <v>2.6402000000000001</v>
+      </c>
+      <c r="G15" s="7">
+        <v>2.8243999999999998</v>
+      </c>
+      <c r="H15" s="7">
+        <v>3.07</v>
+      </c>
+      <c r="I15" s="7">
+        <v>3.2542</v>
+      </c>
+      <c r="J15" s="7">
+        <v>3.4384000000000001</v>
+      </c>
+      <c r="K15" s="7">
+        <v>3.6840000000000002</v>
+      </c>
+      <c r="L15" s="7">
+        <v>3.9296000000000002</v>
+      </c>
+      <c r="M15" s="7">
+        <v>4.1752000000000002</v>
+      </c>
+      <c r="N15" s="7">
+        <v>4.4207999999999998</v>
+      </c>
+      <c r="O15" s="7">
+        <v>4.6664000000000003</v>
+      </c>
+      <c r="P15" s="7">
+        <v>4.9119999999999999</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>5.2190000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1.032</v>
+      </c>
+      <c r="G16" s="7">
+        <v>1.1040000000000001</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1.272</v>
+      </c>
+      <c r="J16" s="7">
+        <v>1.3440000000000001</v>
+      </c>
+      <c r="K16" s="7">
+        <v>1.44</v>
+      </c>
+      <c r="L16" s="7">
+        <v>1.536</v>
+      </c>
+      <c r="M16" s="7">
+        <v>1.6319999999999999</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1.728</v>
+      </c>
+      <c r="O16" s="7">
+        <v>1.8240000000000001</v>
+      </c>
+      <c r="P16" s="7">
+        <v>1.92</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="O17" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="P17" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="7">
+        <v>-0.16</v>
+      </c>
+      <c r="F18" s="7">
+        <v>-0.17</v>
+      </c>
+      <c r="G18" s="7">
+        <v>-0.18</v>
+      </c>
+      <c r="H18" s="7">
+        <v>-0.19</v>
+      </c>
+      <c r="I18" s="7">
+        <v>-0.2</v>
+      </c>
+      <c r="J18" s="7">
+        <v>-0.21</v>
+      </c>
+      <c r="K18" s="7">
+        <v>-0.22</v>
+      </c>
+      <c r="L18" s="7">
+        <v>-0.23</v>
+      </c>
+      <c r="M18" s="7">
+        <v>-0.24</v>
+      </c>
+      <c r="N18" s="7">
+        <v>-0.25</v>
+      </c>
+      <c r="O18" s="7">
+        <v>-0.26</v>
+      </c>
+      <c r="P18" s="7">
+        <v>-0.27</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>-0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="7">
+        <v>-0.16</v>
+      </c>
+      <c r="F19" s="7">
+        <v>-0.17</v>
+      </c>
+      <c r="G19" s="7">
+        <v>-0.18</v>
+      </c>
+      <c r="H19" s="7">
+        <v>-0.19</v>
+      </c>
+      <c r="I19" s="7">
+        <v>-0.2</v>
+      </c>
+      <c r="J19" s="7">
+        <v>-0.21</v>
+      </c>
+      <c r="K19" s="7">
+        <v>-0.22</v>
+      </c>
+      <c r="L19" s="7">
+        <v>-0.23</v>
+      </c>
+      <c r="M19" s="7">
+        <v>-0.24</v>
+      </c>
+      <c r="N19" s="7">
+        <v>-0.25</v>
+      </c>
+      <c r="O19" s="7">
+        <v>-0.26</v>
+      </c>
+      <c r="P19" s="7">
+        <v>-0.27</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>-0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="7">
+        <v>30</v>
+      </c>
+      <c r="F23" s="7">
+        <v>30</v>
+      </c>
+      <c r="G23" s="7">
+        <v>30</v>
+      </c>
+      <c r="H23" s="7">
+        <v>30</v>
+      </c>
+      <c r="I23" s="7">
+        <v>30</v>
+      </c>
+      <c r="J23" s="7">
+        <v>30</v>
+      </c>
+      <c r="K23" s="7">
+        <v>30</v>
+      </c>
+      <c r="L23" s="7">
+        <v>30</v>
+      </c>
+      <c r="M23" s="7">
+        <v>30</v>
+      </c>
+      <c r="N23" s="7">
+        <v>30</v>
+      </c>
+      <c r="O23" s="7">
+        <v>30</v>
+      </c>
+      <c r="P23" s="7">
+        <v>30</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>30</v>
+      </c>
+      <c r="R23" s="7">
+        <v>30</v>
+      </c>
+      <c r="S23" s="7">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C3:C12"/>
-    <mergeCell ref="B3:B12"/>
-    <mergeCell ref="D3:D12"/>
+  <mergeCells count="13">
     <mergeCell ref="E2:S2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="B4:B23"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="C4:C13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
